--- a/Assumption.xlsx
+++ b/Assumption.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\farmsim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82AEB8-3C33-4601-B994-0A773DA2C89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71003F38-C876-4088-9372-B840CF5DCA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
+    <workbookView xWindow="210" yWindow="1200" windowWidth="21600" windowHeight="14040" firstSheet="2" activeTab="5" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumption (1)" sheetId="1" r:id="rId1"/>
     <sheet name="Base_cost" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1_cost" sheetId="3" r:id="rId3"/>
     <sheet name="Insurance_aph_price" sheetId="4" r:id="rId4"/>
-    <sheet name="Incurance_alternatives_frac" sheetId="5" r:id="rId5"/>
-    <sheet name="Incurance_alternatives_prem" sheetId="7" r:id="rId6"/>
+    <sheet name="Insurance_alternatives_frac" sheetId="5" r:id="rId5"/>
+    <sheet name="Insurance_alternatives_prem" sheetId="7" r:id="rId6"/>
     <sheet name="inflation_rates" sheetId="8" r:id="rId7"/>
     <sheet name="planted_acres" sheetId="9" r:id="rId8"/>
     <sheet name="Alt2_cost" sheetId="10" r:id="rId9"/>
@@ -213,11 +213,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +225,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -234,6 +234,13 @@
       <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -620,11 +627,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.375" customWidth="1"/>
+    <col min="2" max="2" width="44.375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -843,6 +850,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -856,7 +864,7 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -905,6 +913,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -917,7 +926,7 @@
       <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -1057,6 +1066,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1069,7 +1079,7 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -1202,6 +1212,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1214,7 +1225,7 @@
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1272,6 +1283,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1284,7 +1296,7 @@
       <selection activeCell="E13" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1372,6 +1384,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1381,10 +1394,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1472,6 +1485,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1484,9 +1498,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1667,6 +1681,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1679,7 +1694,7 @@
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1767,6 +1782,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1779,7 +1795,7 @@
       <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -1828,6 +1844,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assumption.xlsx
+++ b/Assumption.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\farmsim\Simulation_Farm_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71003F38-C876-4088-9372-B840CF5DCA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD91154A-A3B0-4287-B920-E5752D4EDF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1200" windowWidth="21600" windowHeight="14040" firstSheet="2" activeTab="5" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumption (1)" sheetId="1" r:id="rId1"/>
     <sheet name="Base_cost" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1_cost" sheetId="3" r:id="rId3"/>
     <sheet name="Insurance_aph_price" sheetId="4" r:id="rId4"/>
-    <sheet name="Insurance_alternatives_frac" sheetId="5" r:id="rId5"/>
-    <sheet name="Insurance_alternatives_prem" sheetId="7" r:id="rId6"/>
+    <sheet name="Incurance_alternatives_frac" sheetId="5" r:id="rId5"/>
+    <sheet name="Incurance_alternatives_prem" sheetId="7" r:id="rId6"/>
     <sheet name="inflation_rates" sheetId="8" r:id="rId7"/>
     <sheet name="planted_acres" sheetId="9" r:id="rId8"/>
-    <sheet name="Alt2_cost" sheetId="10" r:id="rId9"/>
-    <sheet name="Alt3_cost" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assumption (1)'!$A$4:$A$26</definedName>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>first_year</t>
   </si>
@@ -71,6 +69,9 @@
     <t>cash_on_hand</t>
   </si>
   <si>
+    <t>price_per_cropland</t>
+  </si>
+  <si>
     <t>value_of_cropland_and_buildings</t>
   </si>
   <si>
@@ -164,6 +165,9 @@
     <t>Crop4</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>APH Yield Bu</t>
   </si>
   <si>
@@ -179,6 +183,9 @@
     <t>Alt3</t>
   </si>
   <si>
+    <t>Alt_NoInsurance</t>
+  </si>
+  <si>
     <t>Natl_Prime_Interest_Rate</t>
   </si>
   <si>
@@ -204,20 +211,17 @@
   </si>
   <si>
     <t>Price Election</t>
-  </si>
-  <si>
-    <t>price_of_owned_cropland_acres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +229,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -234,13 +238,6 @@
       <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,7 +283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,20 +620,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD4187E-9F57-4E6A-A324-33E10A7173BB}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.375" customWidth="1"/>
-    <col min="2" max="2" width="44.375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -698,7 +695,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>50</v>
@@ -706,16 +703,16 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <f xml:space="preserve"> B9 *B4</f>
+        <f>B9*B4</f>
         <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>25000</v>
@@ -723,7 +720,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -731,7 +728,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>50000</v>
@@ -739,7 +736,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
@@ -747,7 +744,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>4.3999999999999997E-2</v>
@@ -755,7 +752,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>30000</v>
@@ -763,7 +760,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>64000</v>
@@ -771,7 +768,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -779,7 +776,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>2.5000000000000001E-2</v>
@@ -787,7 +784,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>0.02</v>
@@ -795,7 +792,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -803,7 +800,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>0.02</v>
@@ -811,7 +808,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -819,7 +816,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -827,7 +824,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -835,7 +832,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>457483</v>
@@ -843,78 +840,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3">
         <v>2014</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E20552-30E2-43AE-82B2-FA576C07EF98}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -923,40 +857,40 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>93.75</v>
@@ -982,7 +916,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>82.05</v>
@@ -1008,40 +942,33 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <f>B2+20</f>
-        <v>113.75</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:H4" si="0">C2+20</f>
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>50.844000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>44.897999999999996</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>152.07400000000001</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1049,8 +976,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1066,7 +993,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1076,40 +1002,40 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>93.75</v>
@@ -1135,7 +1061,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>82.05</v>
@@ -1161,33 +1087,33 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>82.05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>103.887</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>88.427000000000007</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>29.68</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>183.52699999999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>273.08999999999997</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1212,7 +1138,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1222,25 +1147,25 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>131.93</v>
@@ -1251,7 +1176,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>916.52300000000002</v>
@@ -1262,18 +1187,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>131.93</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1283,41 +1208,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDDFEBE-EA59-4364-8FF4-8635FD2CAEB2}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.85</v>
@@ -1329,12 +1256,15 @@
         <v>0.75</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.85</v>
@@ -1346,29 +1276,35 @@
         <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.75</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.88</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="D4">
         <v>0.78</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.73</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -1380,45 +1316,50 @@
         <v>0.7</v>
       </c>
       <c r="E5">
+        <v>0.65</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFB9CE8-F7F0-48F4-A2E0-17443154BCBF}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -1430,12 +1371,15 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -1447,12 +1391,15 @@
         <v>18.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>20.5</v>
@@ -1464,12 +1411,15 @@
         <v>15.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1481,11 +1431,13 @@
         <v>8</v>
       </c>
       <c r="E5">
+        <v>6.5</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1498,9 +1450,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1522,7 +1474,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1542,7 +1494,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>-1.01E-2</v>
@@ -1562,7 +1514,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>3.5000000000000003E-2</v>
@@ -1582,7 +1534,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>-1.21E-2</v>
@@ -1602,7 +1554,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>-4.4999999999999997E-3</v>
@@ -1622,7 +1574,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>2.7799999999999998E-2</v>
@@ -1642,7 +1594,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>2E-3</v>
@@ -1662,7 +1614,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1.6683814884108847E-2</v>
@@ -1681,7 +1633,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1691,31 +1642,31 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>800</v>
@@ -1732,7 +1683,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>2200</v>
@@ -1749,24 +1700,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1782,69 +1733,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D962E-7DBF-40BA-AD98-72D6653AE880}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assumption.xlsx
+++ b/Assumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\farmsim\Simulation_Farm_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\farmsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD91154A-A3B0-4287-B920-E5752D4EDF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B04518-2CC4-46BA-BE0E-481732838ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
+    <workbookView xWindow="8232" yWindow="2796" windowWidth="17280" windowHeight="10008" activeTab="1" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumption (1)" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Incurance_alternatives_prem" sheetId="7" r:id="rId6"/>
     <sheet name="inflation_rates" sheetId="8" r:id="rId7"/>
     <sheet name="planted_acres" sheetId="9" r:id="rId8"/>
+    <sheet name="Alt2_cost" sheetId="10" r:id="rId9"/>
+    <sheet name="Alt3_cost" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assumption (1)'!$A$4:$A$26</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>first_year</t>
   </si>
@@ -69,9 +71,6 @@
     <t>cash_on_hand</t>
   </si>
   <si>
-    <t>price_per_cropland</t>
-  </si>
-  <si>
     <t>value_of_cropland_and_buildings</t>
   </si>
   <si>
@@ -165,9 +164,6 @@
     <t>Crop4</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>APH Yield Bu</t>
   </si>
   <si>
@@ -183,9 +179,6 @@
     <t>Alt3</t>
   </si>
   <si>
-    <t>Alt_NoInsurance</t>
-  </si>
-  <si>
     <t>Natl_Prime_Interest_Rate</t>
   </si>
   <si>
@@ -211,6 +204,9 @@
   </si>
   <si>
     <t>Price Election</t>
+  </si>
+  <si>
+    <t>price_of_owned_cropland_acres</t>
   </si>
 </sst>
 </file>
@@ -620,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD4187E-9F57-4E6A-A324-33E10A7173BB}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -633,7 +629,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -695,7 +691,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3">
         <v>50</v>
@@ -703,16 +699,16 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <f>B9*B4</f>
+        <f xml:space="preserve"> B9 *B4</f>
         <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>25000</v>
@@ -720,7 +716,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -728,7 +724,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>50000</v>
@@ -736,7 +732,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
@@ -744,7 +740,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>4.3999999999999997E-2</v>
@@ -752,7 +748,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>30000</v>
@@ -760,7 +756,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>64000</v>
@@ -768,7 +764,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -776,7 +772,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>2.5000000000000001E-2</v>
@@ -784,7 +780,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>0.02</v>
@@ -792,7 +788,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -800,7 +796,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>0.02</v>
@@ -808,7 +804,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -816,7 +812,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -824,7 +820,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -832,7 +828,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>457483</v>
@@ -840,7 +836,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3">
         <v>2014</v>
@@ -849,6 +845,151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E20552-30E2-43AE-82B2-FA576C07EF98}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>93.75</v>
+      </c>
+      <c r="C2">
+        <v>122.5595</v>
+      </c>
+      <c r="D2">
+        <v>13.612500000000001</v>
+      </c>
+      <c r="E2">
+        <v>9.6544000000000008</v>
+      </c>
+      <c r="F2">
+        <v>84.308700000000002</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>82.05</v>
+      </c>
+      <c r="C3">
+        <v>133.42349999999999</v>
+      </c>
+      <c r="D3">
+        <v>114.0304</v>
+      </c>
+      <c r="E3">
+        <v>20.921600000000002</v>
+      </c>
+      <c r="F3">
+        <v>160.5232</v>
+      </c>
+      <c r="G3">
+        <v>345.35520000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -856,56 +997,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4FA6-B77E-46A9-BC0E-4A7762069361}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>93.75</v>
       </c>
       <c r="C2">
-        <v>122.56</v>
+        <v>122.5595</v>
       </c>
       <c r="D2">
-        <v>30.844000000000001</v>
+        <v>30.843499999999999</v>
       </c>
       <c r="E2">
-        <v>24.898</v>
+        <v>24.897699999999997</v>
       </c>
       <c r="F2">
-        <v>132.07400000000001</v>
+        <v>132.07386932192847</v>
       </c>
       <c r="G2">
         <v>99</v>
@@ -916,22 +1057,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>82.05</v>
       </c>
       <c r="C3">
-        <v>103.887</v>
+        <v>103.88700000000001</v>
       </c>
       <c r="D3">
-        <v>88.427000000000007</v>
+        <v>88.427351562500021</v>
       </c>
       <c r="E3">
-        <v>29.68</v>
+        <v>29.680000000000003</v>
       </c>
       <c r="F3">
-        <v>183.52699999999999</v>
+        <v>183.52655778381092</v>
       </c>
       <c r="G3">
         <v>273.08999999999997</v>
@@ -942,7 +1083,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -968,7 +1109,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -976,8 +1117,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1002,40 +1143,40 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>93.75</v>
@@ -1061,7 +1202,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>82.05</v>
@@ -1087,7 +1228,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1113,7 +1254,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1147,25 +1288,25 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>131.93</v>
@@ -1176,7 +1317,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>916.52300000000002</v>
@@ -1187,7 +1328,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1198,7 +1339,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1214,37 +1355,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDDFEBE-EA59-4364-8FF4-8635FD2CAEB2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0.85</v>
@@ -1253,18 +1391,15 @@
         <v>0.85</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0.85</v>
@@ -1273,52 +1408,43 @@
         <v>0.85</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E3">
-        <v>0.75</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
-        <v>0.88</v>
-      </c>
-      <c r="C4">
-        <v>0.83</v>
-      </c>
-      <c r="D4">
-        <v>0.78</v>
-      </c>
-      <c r="E4">
-        <v>0.73</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.65</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1329,111 +1455,96 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFB9CE8-F7F0-48F4-A2E0-17443154BCBF}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
-        <v>20.5</v>
-      </c>
-      <c r="C4">
-        <v>19.5</v>
-      </c>
-      <c r="D4">
-        <v>15.5</v>
-      </c>
-      <c r="E4">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
       <c r="B5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6.5</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1447,7 +1558,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1474,7 +1585,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1494,7 +1605,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>-1.01E-2</v>
@@ -1514,7 +1625,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>3.5000000000000003E-2</v>
@@ -1534,7 +1645,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>-1.21E-2</v>
@@ -1554,7 +1665,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>-4.4999999999999997E-3</v>
@@ -1574,7 +1685,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>2.7799999999999998E-2</v>
@@ -1594,7 +1705,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>2E-3</v>
@@ -1614,7 +1725,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1.6683814884108847E-2</v>
@@ -1642,31 +1753,31 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>800</v>
@@ -1683,7 +1794,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2200</v>
@@ -1700,7 +1811,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1717,7 +1828,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1729,6 +1840,151 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D962E-7DBF-40BA-AD98-72D6653AE880}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>93.75</v>
+      </c>
+      <c r="C2">
+        <v>122.5595</v>
+      </c>
+      <c r="D2">
+        <v>13.612500000000001</v>
+      </c>
+      <c r="E2">
+        <v>9.6544000000000008</v>
+      </c>
+      <c r="F2">
+        <v>84.308700000000002</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>82.05</v>
+      </c>
+      <c r="C3">
+        <v>133.42349999999999</v>
+      </c>
+      <c r="D3">
+        <v>114.0304</v>
+      </c>
+      <c r="E3">
+        <v>20.921600000000002</v>
+      </c>
+      <c r="F3">
+        <v>160.5232</v>
+      </c>
+      <c r="G3">
+        <v>345.35520000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>

--- a/Assumption.xlsx
+++ b/Assumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\farmsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B04518-2CC4-46BA-BE0E-481732838ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B07B9A-DBFD-4643-A6D6-3E5613B2DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8232" yWindow="2796" windowWidth="17280" windowHeight="10008" activeTab="1" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumption (1)" sheetId="1" r:id="rId1"/>
@@ -617,14 +617,14 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="44.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -856,7 +856,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -997,11 +997,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4FA6-B77E-46A9-BC0E-4A7762069361}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -1143,10 +1143,10 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -1291,7 +1291,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1361,7 +1361,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1461,7 +1461,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1557,13 +1557,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981C8DC1-AB80-40A5-BF91-7F8598E90367}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1668,19 +1668,19 @@
         <v>47</v>
       </c>
       <c r="B6">
-        <v>-4.4999999999999997E-3</v>
+        <v>-1.21E-2</v>
       </c>
       <c r="C6">
-        <v>2.0299999999999999E-2</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="D6">
-        <v>0.1182</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>7.2300000000000003E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>6.3399999999999998E-2</v>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1756,7 +1756,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1856,7 +1856,7 @@
       <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">

--- a/Assumption.xlsx
+++ b/Assumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\farmsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B07B9A-DBFD-4643-A6D6-3E5613B2DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C534486D-D4AD-4C21-A66A-4004FBDEC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB08CDB7-C6E8-445C-A002-6B82C81065E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumption (1)" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -271,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,6 +283,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD4187E-9F57-4E6A-A324-33E10A7173BB}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,7 +640,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>2024</v>
       </c>
     </row>
@@ -644,7 +648,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2028</v>
       </c>
     </row>
@@ -652,7 +656,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2000</v>
       </c>
     </row>
@@ -660,7 +664,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -668,7 +672,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>100</v>
       </c>
     </row>
@@ -676,7 +680,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <f>B6*B5</f>
         <v>100000</v>
       </c>
@@ -685,7 +689,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>50000</v>
       </c>
     </row>
@@ -693,7 +697,7 @@
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>50</v>
       </c>
     </row>
@@ -701,7 +705,7 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f xml:space="preserve"> B9 *B4</f>
         <v>100000</v>
       </c>
@@ -710,15 +714,15 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
-        <v>25000</v>
+      <c r="B11" s="4">
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +730,7 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>50000</v>
       </c>
     </row>
@@ -734,7 +738,7 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>20</v>
       </c>
     </row>
@@ -742,7 +746,7 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -750,7 +754,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>30000</v>
       </c>
     </row>
@@ -758,7 +762,7 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>64000</v>
       </c>
     </row>
@@ -766,7 +770,7 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -774,7 +778,7 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -782,7 +786,7 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>0.02</v>
       </c>
     </row>
@@ -790,7 +794,7 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -798,7 +802,7 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>0.02</v>
       </c>
     </row>
@@ -806,7 +810,7 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -814,7 +818,7 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -822,7 +826,7 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +834,7 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>457483</v>
       </c>
     </row>
@@ -838,7 +842,7 @@
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>2014</v>
       </c>
     </row>
@@ -1288,7 +1292,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1557,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981C8DC1-AB80-40A5-BF91-7F8598E90367}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
